--- a/upgrade.xlsx
+++ b/upgrade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Go\config_upgrade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\config_upgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83110801-DB01-4425-B249-F8B6B78F99F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C727E-86CF-4045-B982-35341DA811C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{AD9008FF-BC64-4352-B3F0-B7E0CC636FE4}"/>
   </bookViews>
@@ -601,6 +601,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,15 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CEA822-F92B-4967-B2E0-C726C9481930}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
@@ -1127,141 +1127,141 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1284,92 +1284,92 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1383,12 +1383,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1400,8 +1400,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
@@ -1437,6 +1437,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="G9:G15"/>
     <mergeCell ref="G16:G18"/>
@@ -1449,17 +1460,6 @@
     <mergeCell ref="F9:F15"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="F20:F25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/upgrade.xlsx
+++ b/upgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\config_upgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C727E-86CF-4045-B982-35341DA811C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D55F49-95E4-4D84-A9F1-3222851A1F5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{AD9008FF-BC64-4352-B3F0-B7E0CC636FE4}"/>
   </bookViews>
@@ -89,6 +89,8 @@
 [key]{key}表示新增的key，只针对行。
 [raw]{content}表示直接填写content内容，只针对行。
 [field]表示列名。
+[copy]{region}表示从某个region大区拷贝。
+例 [copy]_Dev
 </t>
         </r>
       </text>
@@ -113,8 +115,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-[copy]{region}表示从某个region大区拷贝。
-例 [copy]_Dev
 [clear] 只针对整表增加和列，表示清空数据（只保留表头）
 [default]{value}只对增加列有效，表示该列都赋值为value，value可为空。
 例 [default] 0
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>事务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
   </si>
   <si>
     <t>变更项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变更内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,6 +409,14 @@
   </si>
   <si>
     <t>2-ini</t>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,6 +605,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,15 +621,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,7 +940,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,10 +968,10 @@
         <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -978,31 +982,31 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -1014,22 +1018,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>25</v>
@@ -1041,22 +1045,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.2">
@@ -1064,33 +1068,33 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1099,22 +1103,22 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1123,152 +1127,152 @@
         <v>28800</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="18" t="s">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>20</v>
@@ -1277,145 +1281,145 @@
         <v>21</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="18" t="s">
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,17 +1441,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="G9:G15"/>
     <mergeCell ref="G16:G18"/>
@@ -1460,6 +1453,17 @@
     <mergeCell ref="F9:F15"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="F20:F25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/upgrade.xlsx
+++ b/upgrade.xlsx
@@ -2,100 +2,482 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\config_upgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB7649-5898-4408-AA2B-C2DF16FCC292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FE45B-B7B6-432A-B3F1-AC7A13DD0A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{AD9008FF-BC64-4352-B3F0-B7E0CC636FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$2</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>lee</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{44B73CC0-D3E7-405D-B3A2-B0EBCF3A6D17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对于csv，指表名
+对于ini，指项名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C6D5A176-4D95-4ED3-A5BB-329AED729185}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ini：
+某类下的某一配置项
+csv：
+[key]{key}表示新增的key，只针对行。
+[raw]{content}表示直接填写content内容，只针对行。
+[field]表示列名。
+[copy]{region}表示从某个region大区拷贝。
+例 [copy]_Dev
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{51B176DB-38DD-4441-9C0D-D6D327A17407}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[clear] 只针对整表增加和列，表示清空数据（只保留表头）
+[default]{value}只对增加列有效，表示该列都赋值为value，value可为空。
+例 [default] 0
+[ascend]表示按升序插入行。
+[descend]表示按降序插入行。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声优名称显示</t>
   </si>
   <si>
     <t>对象</t>
-  </si>
-  <si>
-    <t>变更方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVCardAudioAuthor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包弹出功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出公会提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVUTF8Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today_reminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件保留功能</t>
+  </si>
+  <si>
+    <t>CSVMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红点优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_end_prompt_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑阁跳关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分爬塔排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三军炼化重铸功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVItemBaseAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告功能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVVersionPreview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVMapObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变更项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增配置项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增utf8文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增是否保留邮件字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增红点提醒字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名将挑战红点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增系统提示文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增排行榜界面文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增高级重铸字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增banner图字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增跳转功能字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加告示板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-增加-表</t>
+  </si>
+  <si>
+    <t>2-增加-行</t>
+  </si>
+  <si>
+    <t>3-增加-列</t>
+  </si>
+  <si>
+    <t>1-csv</t>
+  </si>
+  <si>
+    <t>2-ini</t>
   </si>
   <si>
     <t>数据</t>
-  </si>
-  <si>
-    <t>数据规则</t>
-  </si>
-  <si>
-    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结果说明</t>
-  </si>
-  <si>
-    <t>声优名称显示</t>
-  </si>
-  <si>
-    <t>1-csv</t>
-  </si>
-  <si>
-    <t>1-增加-表</t>
-  </si>
-  <si>
-    <t>CSVCardAudioAuthor</t>
-  </si>
-  <si>
-    <t>[copy]_Dev</t>
-  </si>
-  <si>
-    <t>新增配置表</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>表格已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_RECOMMEND_GIFTBAG_CONFIRM
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_GUILD_QUIT_SECOND_CONFIRM
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[field]keepAlive
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[default] 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[field]nRemindFlag
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[default] 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]TRIAL_TOWER_ERROR_631
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]TRIAL_TOWER_ERROR_632
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]TRIAL_TOWER_ERROR_633
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]TRIAL_TOWER_ERROR_634
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]TRIAL_TOWER_ERROR_635
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_TRIAL_TOWER_SKIP_NOTIFY
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_TRIAL_TOWER_SKIP_COST_CHECK
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_PVE_SCORE_PLAYER_SCORE
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_PVE_SCORE_TITLE_PLAYER_NAME
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_PVE_SCORE_TITLE_SCORE
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[field]nResetAdvanceCost.1
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]CORPS_ARTIFICE_RESET_SELECT
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]CORPS_ARTIFICE_RESET_NORMAL
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]CORPS_ARTIFICE_RESET_NORMAL_CONFIRM
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]CORPS_ARTIFICE_RESET_ADVANCE
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]CORPS_ARTIFICE_RESET_ADVANCE_CONFIRM
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]CORPS_ARTIFICE_RESET_CONFIRM
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[field]strBannerImage
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[field]strRedirect
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]39
+[copy]_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -108,12 +490,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -146,31 +530,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -183,7 +599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -193,44 +609,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -258,14 +674,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -293,6 +726,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -304,300 +754,669 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CEA822-F92B-4967-B2E0-C726C9481930}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="34.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F8" s="2">
+        <v>28800</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <dataConsolidate/>
+  <mergeCells count="23">
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Fail"</formula>
+      <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{C6DB03E1-B0C4-4916-B63F-A1C22B396256}">
+      <formula1>"1-增加-表,2-增加-行,3-增加-列,4-修改-字段类型,5-删除-列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{18D19638-216A-46F3-975D-614A7F3381CE}">
       <formula1>"1-csv,2-ini"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"1-增加-表,2-增加-行,3-增加-列,4-修改-字段类型,5-删除-列"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>